--- a/Downer/29267/F2LSIP ITP 11 - Concrete (reviewed).xlsx
+++ b/Downer/29267/F2LSIP ITP 11 - Concrete (reviewed).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\nz4100-ppfss01\shared_projects\310206020\msqa\19_qa\1_ITPs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://downergroup.sharepoint.com/sites/TSLN01/04/WM/ManawatuConstruction/Manawatu CAT 2 Projects/558021 - SH1 Sth Foxton SIP/11-QA QUALITY/QA5 ITPs/Reviewed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B4DF9E-941E-4413-895E-5033C802A0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{45B4DF9E-941E-4413-895E-5033C802A0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0AF088D-19C7-4D7C-9249-32D4D46652B0}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="621" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="621" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="25" r:id="rId1"/>
@@ -699,7 +699,6 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -715,7 +714,6 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -723,21 +721,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Test Results from IANZ registered Laboratory.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Cast in Channels: &gt;20MPa
+    <t>Test Results from IANZ registered Laboratory.
+Cast in Channels: &gt;20MPa
 Machine Laid Kerb and Channel: &gt;25MPa
 Concrete Island Infill: &gt;20Pa</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -748,7 +735,7 @@
     <numFmt numFmtId="164" formatCode="[Red]&quot;◄ Error&quot;;[Red]&quot;◄ Error&quot;;&quot;◄ [OK]&quot;"/>
     <numFmt numFmtId="165" formatCode="[Red]&quot;▲ Error&quot;;[Red]&quot;▲ Error&quot;;&quot;▲ [OK]&quot;"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -1026,12 +1013,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="45">
     <fill>
@@ -2418,7 +2399,7 @@
     <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2617,6 +2598,102 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="40" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2701,102 +2778,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="43" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2873,6 +2854,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3231,96 +3215,96 @@
       <selection activeCell="B17" sqref="B17:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="20.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.09765625" style="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.8984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.8984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.09765625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.3984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.09765625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.3984375" style="1" customWidth="1"/>
     <col min="14" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="118"/>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
     </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="120" t="s">
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="122"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
     </row>
-    <row r="3" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="123" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="I3" s="124"/>
-      <c r="J3" s="123" t="s">
+      <c r="I3" s="73"/>
+      <c r="J3" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="125"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="74"/>
     </row>
-    <row r="4" spans="1:13" ht="24.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="24.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="77"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="119" t="s">
+      <c r="J4" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="119"/>
+      <c r="K4" s="67"/>
       <c r="L4" s="22" t="s">
         <v>6</v>
       </c>
@@ -3328,18 +3312,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="84"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="116"/>
       <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3359,18 +3343,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="117" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="87"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="119"/>
       <c r="H6" s="2" t="s">
         <v>17</v>
       </c>
@@ -3390,20 +3374,20 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="68" t="s">
+    <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="110" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78" t="s">
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="2" t="s">
         <v>22</v>
       </c>
@@ -3419,14 +3403,14 @@
       <c r="L7" s="15"/>
       <c r="M7" s="21"/>
     </row>
-    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="69"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
+    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="101"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
       <c r="H8" s="2" t="s">
         <v>26</v>
       </c>
@@ -3442,20 +3426,20 @@
       <c r="L8" s="15"/>
       <c r="M8" s="21"/>
     </row>
-    <row r="9" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="122"/>
       <c r="E9" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="85">
+      <c r="F9" s="117">
         <v>1</v>
       </c>
-      <c r="G9" s="87"/>
+      <c r="G9" s="119"/>
       <c r="H9" s="2" t="s">
         <v>32</v>
       </c>
@@ -3475,18 +3459,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="84"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="116"/>
       <c r="H10" s="2" t="s">
         <v>39</v>
       </c>
@@ -3506,18 +3490,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="114" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="84"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="116"/>
       <c r="H11" s="2" t="s">
         <v>44</v>
       </c>
@@ -3537,18 +3521,18 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="66" t="s">
+    <row r="12" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="123" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="93"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="125"/>
       <c r="H12" s="2" t="s">
         <v>49</v>
       </c>
@@ -3564,14 +3548,14 @@
       <c r="L12" s="15"/>
       <c r="M12" s="21"/>
     </row>
-    <row r="13" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="67"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="93"/>
+    <row r="13" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="99"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="125"/>
       <c r="H13" s="2" t="s">
         <v>53</v>
       </c>
@@ -3587,18 +3571,18 @@
       <c r="L13" s="15"/>
       <c r="M13" s="21"/>
     </row>
-    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="68" t="s">
+    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="72"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="104"/>
       <c r="H14" s="2" t="s">
         <v>59</v>
       </c>
@@ -3614,14 +3598,14 @@
       <c r="L14" s="15"/>
       <c r="M14" s="21"/>
     </row>
-    <row r="15" spans="1:13" ht="24.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="69"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="75"/>
+    <row r="15" spans="1:13" ht="24.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="101"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="107"/>
       <c r="H15" s="2" t="s">
         <v>63</v>
       </c>
@@ -3637,22 +3621,22 @@
       <c r="L15" s="15"/>
       <c r="M15" s="21"/>
     </row>
-    <row r="16" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
       <c r="E16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="105">
+      <c r="F16" s="75">
         <v>45146</v>
       </c>
-      <c r="G16" s="104"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="2" t="s">
         <v>69</v>
       </c>
@@ -3672,20 +3656,20 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="106" t="s">
+      <c r="B17" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="117"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="87"/>
       <c r="J17" s="23" t="s">
         <v>75</v>
       </c>
@@ -3695,41 +3679,41 @@
       <c r="L17" s="25"/>
       <c r="M17" s="26"/>
     </row>
-    <row r="18" spans="1:13" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="108" t="s">
+    <row r="18" spans="1:13" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="109"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="110"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="80"/>
     </row>
-    <row r="19" spans="1:13" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="111" t="s">
+    <row r="19" spans="1:13" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="112"/>
+      <c r="B19" s="82"/>
       <c r="C19" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="113"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="114" t="s">
+      <c r="D19" s="83"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="114"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="115"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="85"/>
       <c r="L19" s="13" t="s">
         <v>68</v>
       </c>
@@ -3737,26 +3721,26 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="94" t="s">
+    <row r="20" spans="1:13" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="95"/>
+      <c r="B20" s="89"/>
       <c r="C20" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="96" t="s">
+      <c r="D20" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="97"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="97" t="s">
+      <c r="E20" s="91"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="97"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="98"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="92"/>
       <c r="L20" s="3" t="s">
         <v>68</v>
       </c>
@@ -3764,24 +3748,24 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="99" t="s">
+    <row r="21" spans="1:13" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="100"/>
+      <c r="B21" s="94"/>
       <c r="C21" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="101"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="102" t="s">
+      <c r="D21" s="95"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="H21" s="102"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="102"/>
-      <c r="K21" s="103"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="97"/>
       <c r="L21" s="14" t="s">
         <v>68</v>
       </c>
@@ -3789,32 +3773,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:13" ht="11.5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:K21"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:G15"/>
@@ -3830,6 +3791,29 @@
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B12:G13"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:M3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="1.1811023622047201" bottom="0.78740157480314998" header="0.39370078740157499" footer="0.39300000000000002"/>
   <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
@@ -3853,24 +3837,24 @@
   </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="96" zoomScaleNormal="96" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="37" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.09765625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="24.09765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="96" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="20.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="20.09765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.09765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.3984375" style="1" customWidth="1"/>
     <col min="11" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="148" t="s">
         <v>85</v>
       </c>
@@ -3899,7 +3883,7 @@
       <c r="J1" s="127"/>
       <c r="K1" s="128"/>
     </row>
-    <row r="2" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="149"/>
       <c r="B2" s="145"/>
       <c r="C2" s="145"/>
@@ -3920,7 +3904,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="35" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="35" customFormat="1" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>129</v>
       </c>
@@ -3951,7 +3935,7 @@
       <c r="J3" s="45"/>
       <c r="K3" s="47"/>
     </row>
-    <row r="4" spans="1:11" s="35" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="35" customFormat="1" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>130</v>
       </c>
@@ -3968,7 +3952,7 @@
       <c r="J4" s="49"/>
       <c r="K4" s="50"/>
     </row>
-    <row r="5" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="23" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>133</v>
       </c>
@@ -3999,7 +3983,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="55"/>
     </row>
-    <row r="6" spans="1:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>135</v>
       </c>
@@ -4016,7 +4000,7 @@
       <c r="J6" s="52"/>
       <c r="K6" s="53"/>
     </row>
-    <row r="7" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="46" x14ac:dyDescent="0.25">
       <c r="A7" s="150" t="s">
         <v>136</v>
       </c>
@@ -4047,7 +4031,7 @@
       <c r="J7" s="34"/>
       <c r="K7" s="39"/>
     </row>
-    <row r="8" spans="1:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="151"/>
       <c r="B8" s="34" t="s">
         <v>145</v>
@@ -4076,7 +4060,7 @@
       <c r="J8" s="34"/>
       <c r="K8" s="39"/>
     </row>
-    <row r="9" spans="1:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="58" t="s">
         <v>138</v>
       </c>
@@ -4107,7 +4091,7 @@
       <c r="J9" s="34"/>
       <c r="K9" s="39"/>
     </row>
-    <row r="10" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="46" x14ac:dyDescent="0.25">
       <c r="A10" s="62" t="s">
         <v>139</v>
       </c>
@@ -4138,7 +4122,7 @@
       <c r="J10" s="34"/>
       <c r="K10" s="39"/>
     </row>
-    <row r="11" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
         <v>139</v>
       </c>
@@ -4169,7 +4153,7 @@
       <c r="J11" s="34"/>
       <c r="K11" s="39"/>
     </row>
-    <row r="12" spans="1:11" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="48.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="62" t="s">
         <v>140</v>
       </c>
@@ -4200,7 +4184,7 @@
       <c r="J12" s="34"/>
       <c r="K12" s="39"/>
     </row>
-    <row r="13" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="23" x14ac:dyDescent="0.25">
       <c r="A13" s="62" t="s">
         <v>141</v>
       </c>
@@ -4231,7 +4215,7 @@
       <c r="J13" s="34"/>
       <c r="K13" s="39"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
         <v>163</v>
       </c>
@@ -4248,7 +4232,7 @@
       <c r="J14" s="52"/>
       <c r="K14" s="53"/>
     </row>
-    <row r="15" spans="1:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="59" t="s">
         <v>176</v>
       </c>
@@ -4281,7 +4265,7 @@
       </c>
       <c r="K15" s="39"/>
     </row>
-    <row r="16" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="46" x14ac:dyDescent="0.25">
       <c r="A16" s="60" t="s">
         <v>177</v>
       </c>
@@ -4291,7 +4275,7 @@
       <c r="C16" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="152" t="s">
         <v>187</v>
       </c>
       <c r="E16" s="64" t="s">
@@ -4312,7 +4296,7 @@
       <c r="J16" s="61"/>
       <c r="K16" s="63"/>
     </row>
-    <row r="17" spans="1:11" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="38.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="60" t="s">
         <v>178</v>
       </c>
@@ -4343,7 +4327,7 @@
       <c r="J17" s="61"/>
       <c r="K17" s="63"/>
     </row>
-    <row r="19" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="129" t="s">
         <v>106</v>
       </c>
@@ -4358,7 +4342,7 @@
       <c r="J19" s="130"/>
       <c r="K19" s="130"/>
     </row>
-    <row r="20" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="23" x14ac:dyDescent="0.25">
       <c r="A20" s="131"/>
       <c r="B20" s="132"/>
       <c r="C20" s="132"/>
@@ -4379,7 +4363,7 @@
       <c r="J20" s="132"/>
       <c r="K20" s="139"/>
     </row>
-    <row r="21" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="134"/>
       <c r="B21" s="135"/>
       <c r="C21" s="135"/>
@@ -4445,16 +4429,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003B283558C31EDC479AE0FB9366C0C2FE" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a07732dbeabed3b1f6f40e9b0d46319d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e5ba0b7a-c3b7-46e2-a46b-76415d129191" xmlns:ns3="5fd8ad83-784d-43a0-8dba-48a9c6ecbd91" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa458ea88e7c8ed8c3c87fd8b1af69c0" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003B283558C31EDC479AE0FB9366C0C2FE" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cc488396aafce8f105aa0f243fa0ab32">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e5ba0b7a-c3b7-46e2-a46b-76415d129191" xmlns:ns3="5fd8ad83-784d-43a0-8dba-48a9c6ecbd91" xmlns:ns4="db50d7e9-ed42-42fb-ade4-11fb6fb5c797" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cf06c0961caa0653dafb542b2e70858f" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="e5ba0b7a-c3b7-46e2-a46b-76415d129191"/>
     <xsd:import namespace="5fd8ad83-784d-43a0-8dba-48a9c6ecbd91"/>
+    <xsd:import namespace="db50d7e9-ed42-42fb-ade4-11fb6fb5c797"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -4467,6 +4455,12 @@
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4495,6 +4489,35 @@
     <xsd:element name="MediaServiceSearchProperties" ma:index="11" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="50964440-26cf-4116-9cc4-0a071263a07c" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="19" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="20" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -4526,6 +4549,21 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="db50d7e9-ed42-42fb-ade4-11fb6fb5c797" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="18" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{11e497d4-0200-4ae9-a4de-6fa1623e1595}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="5fd8ad83-784d-43a0-8dba-48a9c6ecbd91">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -4628,15 +4666,45 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e5ba0b7a-c3b7-46e2-a46b-76415d129191">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="db50d7e9-ed42-42fb-ade4-11fb6fb5c797" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5626C7C9-6094-4934-84CD-79348EC92CF7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{383D37A2-D49B-4991-8F61-30A6215F133B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e5ba0b7a-c3b7-46e2-a46b-76415d129191"/>
+    <ds:schemaRef ds:uri="5fd8ad83-784d-43a0-8dba-48a9c6ecbd91"/>
+    <ds:schemaRef ds:uri="db50d7e9-ed42-42fb-ade4-11fb6fb5c797"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD7A92A8-0759-420B-A800-5C34C23758BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4645,18 +4713,8 @@
     <ds:schemaRef ds:uri="eb285b10-c671-4894-b2db-3496e9e920b3"/>
     <ds:schemaRef ds:uri="11769c4a-3a36-4379-9582-368c46be3126"/>
     <ds:schemaRef ds:uri="00a074dd-35c6-464f-8a0d-4890eeb3cc58"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E568F70-B5C0-436C-8F1C-09C2E6658F2C}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5626C7C9-6094-4934-84CD-79348EC92CF7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="e5ba0b7a-c3b7-46e2-a46b-76415d129191"/>
+    <ds:schemaRef ds:uri="db50d7e9-ed42-42fb-ade4-11fb6fb5c797"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
